--- a/Data/Barranquilla/CityTimeSeries.xlsx
+++ b/Data/Barranquilla/CityTimeSeries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - Universidad de Los Andes\Covid19\MinCiencias\Nueva carpeta\Data\Barranquilla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - Universidad de Los Andes\Covid19\MinCiencias\Modelo-Metapoblacional\Data\Barranquilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA63FD1-CB17-4845-9FF7-A606783A4D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2EDAEC-71FF-47FC-BDF0-A45BEE1FBCED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43896</v>
+        <v>43904</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -417,52 +417,52 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43897</v>
+        <v>43905</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>C2+B3</f>
+        <f t="shared" ref="C3:C59" si="0">C2+B3</f>
         <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <f>D3+E2</f>
+        <f t="shared" ref="E3:E59" si="1">D3+E2</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43898</v>
+        <v>43906</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">C3+B4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="1">D4+E3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43899</v>
+        <v>43907</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -474,14 +474,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43900</v>
+        <v>43908</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -493,14 +493,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43901</v>
+        <v>43909</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -512,14 +512,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43902</v>
+        <v>43910</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -531,14 +531,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43903</v>
+        <v>43911</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -550,14 +550,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43904</v>
+        <v>43912</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -569,14 +569,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43905</v>
+        <v>43913</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -588,14 +588,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43906</v>
+        <v>43914</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -607,14 +607,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43907</v>
+        <v>43915</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -626,14 +626,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43908</v>
+        <v>43916</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -645,14 +645,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43909</v>
+        <v>43917</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -664,14 +664,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43910</v>
+        <v>43918</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -683,14 +683,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43911</v>
+        <v>43919</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -702,14 +702,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43912</v>
+        <v>43920</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -721,14 +721,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43913</v>
+        <v>43921</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -740,14 +740,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43914</v>
+        <v>43922</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -759,302 +759,302 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43915</v>
+        <v>43923</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43916</v>
+        <v>43924</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43918</v>
+        <v>43926</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43919</v>
+        <v>43927</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43920</v>
+        <v>43928</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43921</v>
+        <v>43929</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43922</v>
+        <v>43930</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43923</v>
+        <v>43931</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43924</v>
+        <v>43932</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43925</v>
+        <v>43933</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43926</v>
+        <v>43934</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43927</v>
+        <v>43935</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43928</v>
+        <v>43936</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43929</v>
+        <v>43937</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43930</v>
+        <v>43938</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -1063,14 +1063,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43931</v>
+        <v>43939</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1082,14 +1082,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43932</v>
+        <v>43940</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1101,610 +1101,610 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43933</v>
+        <v>43941</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43934</v>
+        <v>43942</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43935</v>
+        <v>43943</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43936</v>
+        <v>43944</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43937</v>
+        <v>43945</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43938</v>
+        <v>43946</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43939</v>
+        <v>43947</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43940</v>
+        <v>43948</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43941</v>
+        <v>43949</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43942</v>
+        <v>43950</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43943</v>
+        <v>43951</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43944</v>
+        <v>43952</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43945</v>
+        <v>43953</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43946</v>
+        <v>43954</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43947</v>
+        <v>43955</v>
       </c>
       <c r="B53">
         <v>12</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43948</v>
+        <v>43956</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43949</v>
+        <v>43957</v>
       </c>
       <c r="B55">
         <v>9</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>320</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43950</v>
+        <v>43958</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>343</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>406</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43952</v>
+        <v>43960</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>417</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43953</v>
+        <v>43961</v>
       </c>
       <c r="B59">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43954</v>
+        <v>43962</v>
       </c>
       <c r="B60">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
-        <v>248</v>
+        <f t="shared" ref="C60:C70" si="2">C59+B60</f>
+        <v>478</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" ref="E60:E70" si="3">D60+E59</f>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43955</v>
+        <v>43963</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f t="shared" si="2"/>
+        <v>516</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43956</v>
+        <v>43964</v>
       </c>
       <c r="B62">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
-        <v>311</v>
+        <f t="shared" si="2"/>
+        <v>627</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
-        <v>320</v>
+        <f t="shared" si="2"/>
+        <v>693</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
-        <v>343</v>
+        <f t="shared" si="2"/>
+        <v>772</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43959</v>
+        <v>43967</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>406</v>
+        <f t="shared" si="2"/>
+        <v>804</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43960</v>
+        <v>43968</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>417</v>
+        <f t="shared" si="2"/>
+        <v>910</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43961</v>
+        <v>43969</v>
       </c>
       <c r="B67">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
-        <v>454</v>
+        <f t="shared" si="2"/>
+        <v>1010</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43962</v>
+        <v>43970</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C70" si="2">C67+B68</f>
-        <v>478</v>
+        <f t="shared" si="2"/>
+        <v>1110</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E70" si="3">D68+E67</f>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43963</v>
+        <v>43971</v>
       </c>
       <c r="B69">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>1214</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>43964</v>
+        <v>43972</v>
       </c>
       <c r="B70">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>627</v>
+        <v>1318</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
